--- a/Src/Data/Tables/CharacterDefine.xlsx
+++ b/Src/Data/Tables/CharacterDefine.xlsx
@@ -95,7 +95,7 @@
     <t>Character/Warrior</t>
   </si>
   <si>
-    <t>身披重甲手持大剑或斧，战士是坚韧的肉盾与近战猛攻者。凭借着强大的体力与耐久，他们能在战场上承受大量伤害，保护队友并在前线发动猛烈攻势，是团队中不可或缺的核心。</t>
+    <t>身披重甲手持大剑，战士是坚韧的肉盾与近战猛攻者。凭借着强大的体力与耐久，他们能在战场上承受大量伤害，保护队友并在前线发动猛烈攻势，是团队中不可或缺的核心。</t>
   </si>
   <si>
     <t>法师</t>
@@ -1378,7 +1378,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4"/>

--- a/Src/Data/Tables/CharacterDefine.xlsx
+++ b/Src/Data/Tables/CharacterDefine.xlsx
@@ -1377,8 +1377,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4"/>

--- a/Src/Data/Tables/CharacterDefine.xlsx
+++ b/Src/Data/Tables/CharacterDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" tabRatio="599"/>
+    <workbookView windowWidth="12815" windowHeight="6047" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>TypeID</t>
   </si>
@@ -83,6 +83,39 @@
     <t>Speed</t>
   </si>
   <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>列2</t>
+  </si>
+  <si>
+    <t>列3</t>
+  </si>
+  <si>
+    <t>列4</t>
+  </si>
+  <si>
+    <t>列5</t>
+  </si>
+  <si>
+    <t>列6</t>
+  </si>
+  <si>
+    <t>列7</t>
+  </si>
+  <si>
+    <t>列8</t>
+  </si>
+  <si>
+    <t>列9</t>
+  </si>
+  <si>
+    <t>列10</t>
+  </si>
+  <si>
+    <t>列11</t>
+  </si>
+  <si>
     <t>战士</t>
   </si>
   <si>
@@ -131,13 +164,40 @@
     <t>恶鬼是黑暗力量的化身，来自亡灵的深渊。它们身形扭曲，眼中燃烧着邪恶的火焰，擅长使用诅咒与暗影攻击。恶鬼在阴森的环境中尤为强大，常常作为邪恶势力的先锋，攻击任何胆敢接近它们领土的入侵者。虽然它们的体力较低，但强大的暗影技能和毒性攻击让它们成为不可小觑的威胁。</t>
   </si>
   <si>
-    <t>-</t>
+    <t>山丘巨人</t>
   </si>
   <si>
     <t>Monster/M1002</t>
   </si>
   <si>
+    <t>山丘巨人是远古泰坦血脉的末裔，身躯宛如移动的山岳，由岩石、苔藓与熔岩构成。它们沉睡于群山之间，一旦被惊醒，便会以无可阻挡的力量碾碎一切入侵者。虽然行动缓慢，但每一次踏步都会引发地震，而它们的巨拳足以击碎城墙。传说某些山丘巨人被黑暗魔法腐化，成为了战争兵器。</t>
+  </si>
+  <si>
+    <t>小恶魔</t>
+  </si>
+  <si>
     <t>Monster/M1003</t>
+  </si>
+  <si>
+    <t>小恶魔是深渊中最常见的劣等魔物，成群结队地骚扰冒险者。它们体型矮小，生性狡猾，擅长偷袭和自爆式攻击。虽然单个小恶魔威胁有限，但当它们聚集时，混乱的战术和自杀式袭击会让最老练的战士头疼不已。</t>
+  </si>
+  <si>
+    <t>骷髅兵</t>
+  </si>
+  <si>
+    <t>Monster/M1004</t>
+  </si>
+  <si>
+    <t>骷髅兵是最基础的不死生物，由亡者骸骨被死灵魔法唤醒而成。它们没有意识，只会机械地执行杀戮命令，但某些骷髅兵会保留生前的战斗技巧，甚至穿戴生前的装备。在亡灵军团中，它们是最低阶的士兵，却也是最无穷无尽的威胁。</t>
+  </si>
+  <si>
+    <t>死神</t>
+  </si>
+  <si>
+    <t>Monster/M1005</t>
+  </si>
+  <si>
+    <t>死神并非普通的怪物，而是死亡法则的化身。它没有固定的形态，有时是黑袍骷髅，有时是虚无的暗影，甚至可能以逝去之人的样貌出现。它不会无差别杀戮，而是精准收割那些命数已尽的灵魂。与死神战斗，等于挑战命运本身。</t>
   </si>
 </sst>
 </file>
@@ -150,7 +210,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -172,6 +232,11 @@
       <sz val="9"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -693,182 +758,182 @@
   </borders>
   <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -884,6 +949,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -953,7 +1021,7 @@
     <cellStyle name="好 2" xfId="59"/>
     <cellStyle name="适中 2" xfId="60"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -1060,6 +1128,171 @@
       </fill>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1071,9 +1304,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:I9" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:I9" etc:filterBottomFollowUsedRange="0"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:T11" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:T11" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="20">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="3" name="TID" dataDxfId="1"/>
     <tableColumn id="5" name="Name" dataDxfId="2"/>
@@ -1083,6 +1316,17 @@
     <tableColumn id="98" name="Description" dataDxfId="6"/>
     <tableColumn id="7" name="InitLevel" dataDxfId="7"/>
     <tableColumn id="6" name="Speed" dataDxfId="8"/>
+    <tableColumn id="8" name="列1" dataDxfId="9"/>
+    <tableColumn id="10" name="列2" dataDxfId="10"/>
+    <tableColumn id="11" name="列3" dataDxfId="11"/>
+    <tableColumn id="12" name="列4" dataDxfId="12"/>
+    <tableColumn id="13" name="列5" dataDxfId="13"/>
+    <tableColumn id="14" name="列6" dataDxfId="14"/>
+    <tableColumn id="15" name="列7" dataDxfId="15"/>
+    <tableColumn id="16" name="列8" dataDxfId="16"/>
+    <tableColumn id="17" name="列9" dataDxfId="17"/>
+    <tableColumn id="18" name="列10" dataDxfId="18"/>
+    <tableColumn id="19" name="列11" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1375,10 +1619,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4"/>
@@ -1442,7 +1686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:20">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1467,11 +1711,44 @@
       <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="J3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="66" spans="1:9">
+    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:9">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1479,19 +1756,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -1500,7 +1777,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="52.8" spans="1:9">
+    <row r="5" s="1" customFormat="1" ht="13.2" spans="1:9">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1508,19 +1785,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -1537,19 +1814,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H6" s="6">
         <v>1</v>
@@ -1558,7 +1835,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>1001</v>
       </c>
@@ -1566,28 +1843,45 @@
         <v>1001</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H7" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" s="1">
         <v>300</v>
       </c>
+      <c r="J7" s="4">
+        <v>500</v>
+      </c>
+      <c r="K7" s="4">
+        <v>250</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>1002</v>
       </c>
@@ -1595,26 +1889,45 @@
         <v>1002</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="H8" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I8" s="1">
         <v>300</v>
       </c>
+      <c r="J8" s="4">
+        <v>3000</v>
+      </c>
+      <c r="K8" s="4">
+        <v>500</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>1003</v>
       </c>
@@ -1622,23 +1935,134 @@
         <v>1003</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="H9" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I9" s="1">
         <v>300</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2000</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1004</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="6">
+        <v>10</v>
+      </c>
+      <c r="I10" s="4">
+        <v>300</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2000</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1000</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1005</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="6">
+        <v>10</v>
+      </c>
+      <c r="I11" s="4">
+        <v>300</v>
+      </c>
+      <c r="J11" s="4">
+        <v>20000</v>
+      </c>
+      <c r="K11" s="4">
+        <v>10000</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>

--- a/Src/Data/Tables/CharacterDefine.xlsx
+++ b/Src/Data/Tables/CharacterDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
   <bookViews>
-    <workbookView windowWidth="12815" windowHeight="6047" tabRatio="599"/>
+    <workbookView windowWidth="22188" windowHeight="9060" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>TypeID</t>
   </si>
@@ -50,12 +50,57 @@
     <t>速度</t>
   </si>
   <si>
+    <t>生命</t>
+  </si>
+  <si>
+    <t>法力</t>
+  </si>
+  <si>
+    <t>力量成长</t>
+  </si>
+  <si>
+    <t>智力成长</t>
+  </si>
+  <si>
+    <t>敏捷成长</t>
+  </si>
+  <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>智力</t>
+  </si>
+  <si>
+    <t>敏捷</t>
+  </si>
+  <si>
+    <t>物理攻击</t>
+  </si>
+  <si>
+    <t>法术攻击</t>
+  </si>
+  <si>
+    <t>物理防御</t>
+  </si>
+  <si>
+    <t>法术防御</t>
+  </si>
+  <si>
+    <t>攻击速度</t>
+  </si>
+  <si>
+    <t>暴击概率</t>
+  </si>
+  <si>
     <t>Integer</t>
   </si>
   <si>
     <t>String</t>
   </si>
   <si>
+    <t>Float</t>
+  </si>
+  <si>
     <t>Key</t>
   </si>
   <si>
@@ -83,37 +128,46 @@
     <t>Speed</t>
   </si>
   <si>
-    <t>列1</t>
-  </si>
-  <si>
-    <t>列2</t>
-  </si>
-  <si>
-    <t>列3</t>
-  </si>
-  <si>
-    <t>列4</t>
-  </si>
-  <si>
-    <t>列5</t>
-  </si>
-  <si>
-    <t>列6</t>
-  </si>
-  <si>
-    <t>列7</t>
-  </si>
-  <si>
-    <t>列8</t>
-  </si>
-  <si>
-    <t>列9</t>
-  </si>
-  <si>
-    <t>列10</t>
-  </si>
-  <si>
-    <t>列11</t>
+    <t>MaxHP</t>
+  </si>
+  <si>
+    <t>MaxMP</t>
+  </si>
+  <si>
+    <t>GrowthSTR</t>
+  </si>
+  <si>
+    <t>GrowthINT</t>
+  </si>
+  <si>
+    <t>GrowthDEX</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>DEX</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>MDEF</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>CRI</t>
   </si>
   <si>
     <t>战士</t>
@@ -210,7 +264,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -228,9 +282,27 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -758,31 +830,19 @@
   </borders>
   <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -791,149 +851,161 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -946,15 +1018,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1304,9 +1391,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:T11" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:T11" etc:filterBottomFollowUsedRange="0"/>
-  <tableColumns count="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:W11" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:W11" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="23">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="3" name="TID" dataDxfId="1"/>
     <tableColumn id="5" name="Name" dataDxfId="2"/>
@@ -1316,17 +1403,20 @@
     <tableColumn id="98" name="Description" dataDxfId="6"/>
     <tableColumn id="7" name="InitLevel" dataDxfId="7"/>
     <tableColumn id="6" name="Speed" dataDxfId="8"/>
-    <tableColumn id="8" name="列1" dataDxfId="9"/>
-    <tableColumn id="10" name="列2" dataDxfId="10"/>
-    <tableColumn id="11" name="列3" dataDxfId="11"/>
-    <tableColumn id="12" name="列4" dataDxfId="12"/>
-    <tableColumn id="13" name="列5" dataDxfId="13"/>
-    <tableColumn id="14" name="列6" dataDxfId="14"/>
-    <tableColumn id="15" name="列7" dataDxfId="15"/>
-    <tableColumn id="16" name="列8" dataDxfId="16"/>
-    <tableColumn id="17" name="列9" dataDxfId="17"/>
-    <tableColumn id="18" name="列10" dataDxfId="18"/>
-    <tableColumn id="19" name="列11" dataDxfId="19"/>
+    <tableColumn id="8" name="MaxHP" dataDxfId="9"/>
+    <tableColumn id="10" name="MaxMP" dataDxfId="10"/>
+    <tableColumn id="11" name="GrowthSTR" dataDxfId="11"/>
+    <tableColumn id="12" name="GrowthINT" dataDxfId="12"/>
+    <tableColumn id="13" name="GrowthDEX" dataDxfId="13"/>
+    <tableColumn id="14" name="STR" dataDxfId="14"/>
+    <tableColumn id="15" name="INT" dataDxfId="15"/>
+    <tableColumn id="16" name="DEX" dataDxfId="16"/>
+    <tableColumn id="17" name="AD" dataDxfId="17"/>
+    <tableColumn id="18" name="AP" dataDxfId="18"/>
+    <tableColumn id="19" name="DEF" dataDxfId="19"/>
+    <tableColumn id="20" name="MDEF"/>
+    <tableColumn id="21" name="SPD"/>
+    <tableColumn id="22" name="CRI"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1619,10 +1709,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4"/>
@@ -1635,7 +1725,7 @@
     <col min="9" max="16384" width="16.287037037037" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:23">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1653,102 +1743,195 @@
       <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:23">
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="4" t="s">
+    <row r="3" spans="1:23">
+      <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="F3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:9">
+    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:23">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1756,28 +1939,70 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="1">
+        <v>50</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="10">
         <v>1</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="10">
         <v>300</v>
       </c>
+      <c r="J4" s="10">
+        <v>260</v>
+      </c>
+      <c r="K4" s="10">
+        <v>180</v>
+      </c>
+      <c r="L4" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="M4" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="N4" s="10">
+        <v>2</v>
+      </c>
+      <c r="O4" s="10">
+        <v>10</v>
+      </c>
+      <c r="P4" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>5</v>
+      </c>
+      <c r="R4" s="10">
+        <v>20</v>
+      </c>
+      <c r="S4" s="10">
+        <v>25</v>
+      </c>
+      <c r="T4" s="10">
+        <v>15</v>
+      </c>
+      <c r="U4" s="10">
+        <v>9</v>
+      </c>
+      <c r="V4" s="10">
+        <v>59</v>
+      </c>
+      <c r="W4" s="10">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="13.2" spans="1:9">
+    <row r="5" s="1" customFormat="1" ht="13.2" spans="1:23">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1785,28 +2010,70 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="1">
+        <v>54</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="10">
         <v>1</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="10">
         <v>300</v>
       </c>
+      <c r="J5" s="10">
+        <v>270</v>
+      </c>
+      <c r="K5" s="10">
+        <v>290</v>
+      </c>
+      <c r="L5" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="M5" s="10">
+        <v>5</v>
+      </c>
+      <c r="N5" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="O5" s="10">
+        <v>3</v>
+      </c>
+      <c r="P5" s="10">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>5</v>
+      </c>
+      <c r="R5" s="10">
+        <v>25</v>
+      </c>
+      <c r="S5" s="10">
+        <v>20</v>
+      </c>
+      <c r="T5" s="10">
+        <v>9</v>
+      </c>
+      <c r="U5" s="10">
+        <v>15</v>
+      </c>
+      <c r="V5" s="10">
+        <v>69</v>
+      </c>
+      <c r="W5" s="10">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="13.2" spans="1:9">
+    <row r="6" s="1" customFormat="1" ht="13.2" spans="1:23">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1814,28 +2081,70 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10">
+        <v>300</v>
+      </c>
+      <c r="J6" s="10">
+        <v>250</v>
+      </c>
+      <c r="K6" s="10">
+        <v>260</v>
+      </c>
+      <c r="L6" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="M6" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="N6" s="10">
+        <v>4</v>
+      </c>
+      <c r="O6" s="10">
+        <v>7</v>
+      </c>
+      <c r="P6" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>7</v>
+      </c>
+      <c r="R6" s="10">
+        <v>25</v>
+      </c>
+      <c r="S6" s="10">
         <v>30</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>300</v>
+      <c r="T6" s="10">
+        <v>9</v>
+      </c>
+      <c r="U6" s="10">
+        <v>15</v>
+      </c>
+      <c r="V6" s="10">
+        <v>78</v>
+      </c>
+      <c r="W6" s="10">
+        <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>1001</v>
       </c>
@@ -1843,45 +2152,70 @@
         <v>1001</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1</v>
+      </c>
+      <c r="I7" s="10">
+        <v>300</v>
+      </c>
+      <c r="J7" s="5">
+        <v>500</v>
+      </c>
+      <c r="K7" s="5">
+        <v>250</v>
+      </c>
+      <c r="L7" s="5">
+        <v>3</v>
+      </c>
+      <c r="M7" s="5">
+        <v>2</v>
+      </c>
+      <c r="N7" s="5">
+        <v>2</v>
+      </c>
+      <c r="O7" s="5">
+        <v>15</v>
+      </c>
+      <c r="P7" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>5</v>
+      </c>
+      <c r="R7" s="5">
+        <v>40</v>
+      </c>
+      <c r="S7" s="5">
+        <v>40</v>
+      </c>
+      <c r="T7" s="5">
         <v>30</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="6">
-        <v>5</v>
-      </c>
-      <c r="I7" s="1">
-        <v>300</v>
-      </c>
-      <c r="J7" s="4">
-        <v>500</v>
-      </c>
-      <c r="K7" s="4">
-        <v>250</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4">
+      <c r="U7" s="5">
+        <v>30</v>
+      </c>
+      <c r="V7" s="5">
+        <v>60</v>
+      </c>
+      <c r="W7" s="5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>1002</v>
       </c>
@@ -1889,45 +2223,70 @@
         <v>1002</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="6">
+        <v>49</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1</v>
+      </c>
+      <c r="I8" s="10">
+        <v>300</v>
+      </c>
+      <c r="J8" s="5">
+        <v>3000</v>
+      </c>
+      <c r="K8" s="5">
+        <v>500</v>
+      </c>
+      <c r="L8" s="5">
+        <v>3</v>
+      </c>
+      <c r="M8" s="5">
+        <v>2</v>
+      </c>
+      <c r="N8" s="5">
+        <v>2</v>
+      </c>
+      <c r="O8" s="5">
+        <v>20</v>
+      </c>
+      <c r="P8" s="5">
         <v>10</v>
       </c>
-      <c r="I8" s="1">
-        <v>300</v>
-      </c>
-      <c r="J8" s="4">
-        <v>3000</v>
-      </c>
-      <c r="K8" s="4">
-        <v>500</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4">
+      <c r="Q8" s="5">
+        <v>5</v>
+      </c>
+      <c r="R8" s="5">
+        <v>100</v>
+      </c>
+      <c r="S8" s="5">
+        <v>100</v>
+      </c>
+      <c r="T8" s="5">
+        <v>60</v>
+      </c>
+      <c r="U8" s="5">
+        <v>60</v>
+      </c>
+      <c r="V8" s="5">
+        <v>60</v>
+      </c>
+      <c r="W8" s="5">
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>1003</v>
       </c>
@@ -1935,45 +2294,70 @@
         <v>1003</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="6">
-        <v>10</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="F9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="11">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10">
         <v>300</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="5">
         <v>2000</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="5">
         <v>1000</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4">
+      <c r="L9" s="5">
+        <v>3</v>
+      </c>
+      <c r="M9" s="5">
+        <v>2</v>
+      </c>
+      <c r="N9" s="5">
+        <v>2</v>
+      </c>
+      <c r="O9" s="5">
+        <v>15</v>
+      </c>
+      <c r="P9" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>5</v>
+      </c>
+      <c r="R9" s="5">
+        <v>200</v>
+      </c>
+      <c r="S9" s="5">
+        <v>100</v>
+      </c>
+      <c r="T9" s="5">
+        <v>150</v>
+      </c>
+      <c r="U9" s="5">
+        <v>150</v>
+      </c>
+      <c r="V9" s="5">
+        <v>60</v>
+      </c>
+      <c r="W9" s="5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>1004</v>
       </c>
@@ -1981,45 +2365,70 @@
         <v>1004</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="6">
-        <v>10</v>
-      </c>
-      <c r="I10" s="4">
+        <v>57</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
         <v>300</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="5">
         <v>2000</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="5">
         <v>1000</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4">
+      <c r="L10" s="5">
+        <v>3</v>
+      </c>
+      <c r="M10" s="5">
+        <v>2</v>
+      </c>
+      <c r="N10" s="5">
+        <v>2</v>
+      </c>
+      <c r="O10" s="5">
+        <v>15</v>
+      </c>
+      <c r="P10" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>5</v>
+      </c>
+      <c r="R10" s="5">
+        <v>200</v>
+      </c>
+      <c r="S10" s="5">
+        <v>100</v>
+      </c>
+      <c r="T10" s="5">
+        <v>150</v>
+      </c>
+      <c r="U10" s="5">
+        <v>150</v>
+      </c>
+      <c r="V10" s="5">
+        <v>60</v>
+      </c>
+      <c r="W10" s="5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>1005</v>
       </c>
@@ -2027,41 +2436,66 @@
         <v>1005</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="6">
+        <v>53</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>300</v>
+      </c>
+      <c r="J11" s="5">
+        <v>20000</v>
+      </c>
+      <c r="K11" s="5">
+        <v>10000</v>
+      </c>
+      <c r="L11" s="5">
+        <v>3</v>
+      </c>
+      <c r="M11" s="5">
+        <v>2</v>
+      </c>
+      <c r="N11" s="5">
+        <v>2</v>
+      </c>
+      <c r="O11" s="5">
+        <v>50</v>
+      </c>
+      <c r="P11" s="5">
         <v>10</v>
       </c>
-      <c r="I11" s="4">
+      <c r="Q11" s="5">
+        <v>5</v>
+      </c>
+      <c r="R11" s="5">
+        <v>400</v>
+      </c>
+      <c r="S11" s="5">
         <v>300</v>
       </c>
-      <c r="J11" s="4">
-        <v>20000</v>
-      </c>
-      <c r="K11" s="4">
-        <v>10000</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4">
+      <c r="T11" s="5">
+        <v>250</v>
+      </c>
+      <c r="U11" s="5">
+        <v>250</v>
+      </c>
+      <c r="V11" s="5">
+        <v>60</v>
+      </c>
+      <c r="W11" s="5">
         <v>0.05</v>
       </c>
     </row>

--- a/Src/Data/Tables/CharacterDefine.xlsx
+++ b/Src/Data/Tables/CharacterDefine.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="77">
   <si>
     <t>TypeID</t>
   </si>
@@ -92,6 +92,9 @@
     <t>暴击概率</t>
   </si>
   <si>
+    <t>角色高度</t>
+  </si>
+  <si>
     <t>Integer</t>
   </si>
   <si>
@@ -168,6 +171,9 @@
   </si>
   <si>
     <t>CRI</t>
+  </si>
+  <si>
+    <t>Height</t>
   </si>
   <si>
     <t>战士</t>
@@ -258,13 +264,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -282,27 +289,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color theme="0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -830,19 +819,31 @@
   </borders>
   <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -851,161 +852,149 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1018,31 +1007,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="61">
@@ -1108,7 +1085,7 @@
     <cellStyle name="好 2" xfId="59"/>
     <cellStyle name="适中 2" xfId="60"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -1380,6 +1357,51 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1390,10 +1412,17 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:W11" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:W11" etc:filterBottomFollowUsedRange="0"/>
-  <tableColumns count="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:X11" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:X11" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="24">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="3" name="TID" dataDxfId="1"/>
     <tableColumn id="5" name="Name" dataDxfId="2"/>
@@ -1414,9 +1443,10 @@
     <tableColumn id="17" name="AD" dataDxfId="17"/>
     <tableColumn id="18" name="AP" dataDxfId="18"/>
     <tableColumn id="19" name="DEF" dataDxfId="19"/>
-    <tableColumn id="20" name="MDEF"/>
-    <tableColumn id="21" name="SPD"/>
-    <tableColumn id="22" name="CRI"/>
+    <tableColumn id="20" name="MDEF" dataDxfId="20"/>
+    <tableColumn id="21" name="SPD" dataDxfId="21"/>
+    <tableColumn id="22" name="CRI" dataDxfId="22"/>
+    <tableColumn id="23" name="Height"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1709,10 +1739,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4"/>
@@ -1725,7 +1755,7 @@
     <col min="9" max="16384" width="16.287037037037" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1743,195 +1773,204 @@
       <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="X1" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="2:23">
+    <row r="2" spans="2:24">
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>23</v>
+      <c r="J2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:24">
+      <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="H3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="I3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="J3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="K3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="L3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="M3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="N3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="O3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="P3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="Q3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="R3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="S3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="T3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="U3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="W3" s="13" t="s">
+      <c r="V3" s="8" t="s">
         <v>46</v>
       </c>
+      <c r="W3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:23">
+    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:24">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1939,70 +1978,73 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="10">
+        <v>52</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="1">
         <v>300</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="1">
         <v>260</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="1">
         <v>180</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="1">
         <v>5.5</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="1">
         <v>1.5</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="1">
         <v>2</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="1">
         <v>10</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="1">
         <v>3</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="1">
         <v>5</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="1">
         <v>20</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4" s="1">
         <v>25</v>
       </c>
-      <c r="T4" s="10">
+      <c r="T4" s="1">
         <v>15</v>
       </c>
-      <c r="U4" s="10">
+      <c r="U4" s="1">
         <v>9</v>
       </c>
-      <c r="V4" s="10">
+      <c r="V4" s="1">
         <v>59</v>
       </c>
-      <c r="W4" s="10">
+      <c r="W4" s="1">
         <v>0.02</v>
       </c>
+      <c r="X4" s="1">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="13.2" spans="1:23">
+    <row r="5" s="1" customFormat="1" ht="13.2" spans="1:24">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2010,70 +2052,73 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="10">
+        <v>56</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="1">
         <v>300</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="1">
         <v>270</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="1">
         <v>290</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="1">
         <v>1.5</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="1">
         <v>5</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="1">
         <v>2.5</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="1">
         <v>3</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="1">
         <v>10</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="1">
         <v>5</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="1">
         <v>25</v>
       </c>
-      <c r="S5" s="10">
+      <c r="S5" s="1">
         <v>20</v>
       </c>
-      <c r="T5" s="10">
+      <c r="T5" s="1">
         <v>9</v>
       </c>
-      <c r="U5" s="10">
+      <c r="U5" s="1">
         <v>15</v>
       </c>
-      <c r="V5" s="10">
+      <c r="V5" s="1">
         <v>69</v>
       </c>
-      <c r="W5" s="10">
+      <c r="W5" s="1">
         <v>0.02</v>
       </c>
+      <c r="X5" s="1">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="13.2" spans="1:23">
+    <row r="6" s="1" customFormat="1" ht="13.2" spans="1:24">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -2081,70 +2126,73 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="11">
+        <v>60</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="6">
         <v>1</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="1">
         <v>300</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="1">
         <v>250</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="1">
         <v>260</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="1">
         <v>3.5</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="1">
         <v>1.5</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="1">
         <v>4</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="1">
         <v>7</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="1">
         <v>4</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="1">
         <v>7</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="1">
         <v>25</v>
       </c>
-      <c r="S6" s="10">
+      <c r="S6" s="1">
         <v>30</v>
       </c>
-      <c r="T6" s="10">
+      <c r="T6" s="1">
         <v>9</v>
       </c>
-      <c r="U6" s="10">
+      <c r="U6" s="1">
         <v>15</v>
       </c>
-      <c r="V6" s="10">
+      <c r="V6" s="1">
         <v>78</v>
       </c>
-      <c r="W6" s="10">
+      <c r="W6" s="1">
         <v>0.05</v>
       </c>
+      <c r="X6" s="1">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" s="1">
         <v>1001</v>
       </c>
@@ -2152,70 +2200,73 @@
         <v>1001</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>300</v>
+      </c>
+      <c r="J7" s="4">
+        <v>500</v>
+      </c>
+      <c r="K7" s="4">
+        <v>250</v>
+      </c>
+      <c r="L7" s="4">
+        <v>3</v>
+      </c>
+      <c r="M7" s="4">
+        <v>2</v>
+      </c>
+      <c r="N7" s="4">
+        <v>2</v>
+      </c>
+      <c r="O7" s="4">
+        <v>15</v>
+      </c>
+      <c r="P7" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>5</v>
+      </c>
+      <c r="R7" s="4">
+        <v>40</v>
+      </c>
+      <c r="S7" s="4">
+        <v>40</v>
+      </c>
+      <c r="T7" s="4">
+        <v>30</v>
+      </c>
+      <c r="U7" s="4">
+        <v>30</v>
+      </c>
+      <c r="V7" s="4">
         <v>60</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" s="11">
-        <v>1</v>
-      </c>
-      <c r="I7" s="10">
-        <v>300</v>
-      </c>
-      <c r="J7" s="5">
-        <v>500</v>
-      </c>
-      <c r="K7" s="5">
-        <v>250</v>
-      </c>
-      <c r="L7" s="5">
-        <v>3</v>
-      </c>
-      <c r="M7" s="5">
-        <v>2</v>
-      </c>
-      <c r="N7" s="5">
-        <v>2</v>
-      </c>
-      <c r="O7" s="5">
-        <v>15</v>
-      </c>
-      <c r="P7" s="5">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>5</v>
-      </c>
-      <c r="R7" s="5">
-        <v>40</v>
-      </c>
-      <c r="S7" s="5">
-        <v>40</v>
-      </c>
-      <c r="T7" s="5">
-        <v>30</v>
-      </c>
-      <c r="U7" s="5">
-        <v>30</v>
-      </c>
-      <c r="V7" s="5">
-        <v>60</v>
-      </c>
-      <c r="W7" s="5">
+      <c r="W7" s="4">
         <v>0.01</v>
       </c>
+      <c r="X7" s="4">
+        <v>1.8</v>
+      </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" s="1">
         <v>1002</v>
       </c>
@@ -2223,70 +2274,73 @@
         <v>1002</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="11">
+        <v>51</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="6">
         <v>1</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="1">
         <v>300</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>3000</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>500</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <v>3</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="4">
         <v>2</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="4">
         <v>2</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="4">
         <v>20</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="4">
         <v>10</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="4">
         <v>5</v>
       </c>
-      <c r="R8" s="5">
+      <c r="R8" s="4">
         <v>100</v>
       </c>
-      <c r="S8" s="5">
+      <c r="S8" s="4">
         <v>100</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="4">
         <v>60</v>
       </c>
-      <c r="U8" s="5">
+      <c r="U8" s="4">
         <v>60</v>
       </c>
-      <c r="V8" s="5">
+      <c r="V8" s="4">
         <v>60</v>
       </c>
-      <c r="W8" s="5">
+      <c r="W8" s="4">
         <v>0.03</v>
       </c>
+      <c r="X8" s="4">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" s="1">
         <v>1003</v>
       </c>
@@ -2294,70 +2348,73 @@
         <v>1003</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="11">
+        <v>51</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="6">
         <v>1</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="1">
         <v>300</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>2000</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>1000</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <v>3</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <v>2</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="4">
         <v>2</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="4">
         <v>15</v>
       </c>
-      <c r="P9" s="5">
+      <c r="P9" s="4">
         <v>5</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="4">
         <v>5</v>
       </c>
-      <c r="R9" s="5">
+      <c r="R9" s="4">
         <v>200</v>
       </c>
-      <c r="S9" s="5">
+      <c r="S9" s="4">
         <v>100</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="4">
         <v>150</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9" s="4">
         <v>150</v>
       </c>
-      <c r="V9" s="5">
+      <c r="V9" s="4">
         <v>60</v>
       </c>
-      <c r="W9" s="5">
+      <c r="W9" s="4">
         <v>0.01</v>
       </c>
+      <c r="X9" s="9">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" s="1">
         <v>1004</v>
       </c>
@@ -2365,70 +2422,73 @@
         <v>1004</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="11">
+        <v>59</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="6">
         <v>1</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>300</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>2000</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>1000</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <v>3</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <v>2</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="4">
         <v>2</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="4">
         <v>15</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="4">
         <v>5</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="4">
         <v>5</v>
       </c>
-      <c r="R10" s="5">
+      <c r="R10" s="4">
         <v>200</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="4">
         <v>100</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="4">
         <v>150</v>
       </c>
-      <c r="U10" s="5">
+      <c r="U10" s="4">
         <v>150</v>
       </c>
-      <c r="V10" s="5">
+      <c r="V10" s="4">
         <v>60</v>
       </c>
-      <c r="W10" s="5">
+      <c r="W10" s="4">
         <v>0.01</v>
       </c>
+      <c r="X10" s="4">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" s="1">
         <v>1005</v>
       </c>
@@ -2436,67 +2496,70 @@
         <v>1005</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="11">
+        <v>55</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="6">
         <v>1</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>300</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>20000</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>10000</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <v>3</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="4">
         <v>2</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="4">
         <v>2</v>
       </c>
-      <c r="O11" s="5">
+      <c r="O11" s="4">
         <v>50</v>
       </c>
-      <c r="P11" s="5">
+      <c r="P11" s="4">
         <v>10</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="4">
         <v>5</v>
       </c>
-      <c r="R11" s="5">
+      <c r="R11" s="4">
         <v>400</v>
       </c>
-      <c r="S11" s="5">
+      <c r="S11" s="4">
         <v>300</v>
       </c>
-      <c r="T11" s="5">
+      <c r="T11" s="4">
         <v>250</v>
       </c>
-      <c r="U11" s="5">
+      <c r="U11" s="4">
         <v>250</v>
       </c>
-      <c r="V11" s="5">
+      <c r="V11" s="4">
         <v>60</v>
       </c>
-      <c r="W11" s="5">
+      <c r="W11" s="4">
         <v>0.05</v>
+      </c>
+      <c r="X11" s="9">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Src/Data/Tables/CharacterDefine.xlsx
+++ b/Src/Data/Tables/CharacterDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
   <si>
     <t>TypeID</t>
   </si>
@@ -44,6 +44,9 @@
     <t>描述</t>
   </si>
   <si>
+    <t>AI</t>
+  </si>
+  <si>
     <t>初始等级</t>
   </si>
   <si>
@@ -224,6 +227,9 @@
     <t>恶鬼是黑暗力量的化身，来自亡灵的深渊。它们身形扭曲，眼中燃烧着邪恶的火焰，擅长使用诅咒与暗影攻击。恶鬼在阴森的环境中尤为强大，常常作为邪恶势力的先锋，攻击任何胆敢接近它们领土的入侵者。虽然它们的体力较低，但强大的暗影技能和毒性攻击让它们成为不可小觑的威胁。</t>
   </si>
   <si>
+    <t>AIMonsterPassive</t>
+  </si>
+  <si>
     <t>山丘巨人</t>
   </si>
   <si>
@@ -258,6 +264,9 @@
   </si>
   <si>
     <t>死神并非普通的怪物，而是死亡法则的化身。它没有固定的形态，有时是黑袍骷髅，有时是虚无的暗影，甚至可能以逝去之人的样貌出现。它不会无差别杀戮，而是精准收割那些命数已尽的灵魂。与死神战斗，等于挑战命运本身。</t>
+  </si>
+  <si>
+    <t>AIBoss</t>
   </si>
 </sst>
 </file>
@@ -271,7 +280,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -293,11 +302,6 @@
       <sz val="9"/>
       <color theme="0"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -819,178 +823,178 @@
   </borders>
   <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,7 +1016,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1085,7 +1089,7 @@
     <cellStyle name="好 2" xfId="59"/>
     <cellStyle name="适中 2" xfId="60"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -1402,6 +1406,21 @@
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1420,9 +1439,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:X11" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:X11" etc:filterBottomFollowUsedRange="0"/>
-  <tableColumns count="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:Y11" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:Y11" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="25">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="3" name="TID" dataDxfId="1"/>
     <tableColumn id="5" name="Name" dataDxfId="2"/>
@@ -1430,6 +1449,7 @@
     <tableColumn id="9" name="Class" dataDxfId="4"/>
     <tableColumn id="2" name="Resource" dataDxfId="5"/>
     <tableColumn id="98" name="Description" dataDxfId="6"/>
+    <tableColumn id="24" name="AI"/>
     <tableColumn id="7" name="InitLevel" dataDxfId="7"/>
     <tableColumn id="6" name="Speed" dataDxfId="8"/>
     <tableColumn id="8" name="MaxHP" dataDxfId="9"/>
@@ -1446,7 +1466,7 @@
     <tableColumn id="20" name="MDEF" dataDxfId="20"/>
     <tableColumn id="21" name="SPD" dataDxfId="21"/>
     <tableColumn id="22" name="CRI" dataDxfId="22"/>
-    <tableColumn id="23" name="Height"/>
+    <tableColumn id="23" name="Height" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1739,10 +1759,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4"/>
@@ -1751,11 +1771,11 @@
     <col min="3" max="3" width="22.5740740740741" style="2" customWidth="1"/>
     <col min="4" max="5" width="19.8518518518519" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.8518518518519" style="2" customWidth="1"/>
-    <col min="7" max="8" width="32.5740740740741" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="16.287037037037" style="4"/>
+    <col min="7" max="9" width="32.5740740740741" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="16.287037037037" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1824,104 +1844,110 @@
       <c r="X1" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="Y1" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="2:24">
+    <row r="2" spans="2:25">
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:25">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="8" t="s">
@@ -1966,11 +1992,14 @@
       <c r="W3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="8" t="s">
         <v>48</v>
       </c>
+      <c r="Y3" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:24">
+    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1978,73 +2007,74 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="1">
+        <v>54</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>300</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>260</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>180</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>5.5</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>1.5</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>2</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>10</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>3</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>5</v>
       </c>
-      <c r="R4" s="1">
+      <c r="S4" s="1">
         <v>20</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T4" s="1">
         <v>25</v>
       </c>
-      <c r="T4" s="1">
+      <c r="U4" s="1">
         <v>15</v>
       </c>
-      <c r="U4" s="1">
+      <c r="V4" s="1">
         <v>9</v>
       </c>
-      <c r="V4" s="1">
+      <c r="W4" s="1">
         <v>59</v>
       </c>
-      <c r="W4" s="1">
+      <c r="X4" s="1">
         <v>0.02</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Y4" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="13.2" spans="1:24">
+    <row r="5" s="1" customFormat="1" ht="13.2" spans="1:25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2052,73 +2082,74 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="1">
+        <v>58</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="1">
         <v>1</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>300</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>270</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>290</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>1.5</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>5</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>2.5</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>3</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>10</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>5</v>
       </c>
-      <c r="R5" s="1">
+      <c r="S5" s="1">
         <v>25</v>
       </c>
-      <c r="S5" s="1">
+      <c r="T5" s="1">
         <v>20</v>
       </c>
-      <c r="T5" s="1">
+      <c r="U5" s="1">
         <v>9</v>
       </c>
-      <c r="U5" s="1">
+      <c r="V5" s="1">
         <v>15</v>
       </c>
-      <c r="V5" s="1">
+      <c r="W5" s="1">
         <v>69</v>
       </c>
-      <c r="W5" s="1">
+      <c r="X5" s="1">
         <v>0.02</v>
       </c>
-      <c r="X5" s="1">
+      <c r="Y5" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="13.2" spans="1:24">
+    <row r="6" s="1" customFormat="1" ht="13.2" spans="1:25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -2126,73 +2157,74 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="6">
+        <v>62</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6">
         <v>1</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>300</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>250</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>260</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>3.5</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>1.5</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>4</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>7</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>4</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>7</v>
       </c>
-      <c r="R6" s="1">
+      <c r="S6" s="1">
         <v>25</v>
       </c>
-      <c r="S6" s="1">
+      <c r="T6" s="1">
         <v>30</v>
       </c>
-      <c r="T6" s="1">
+      <c r="U6" s="1">
         <v>9</v>
       </c>
-      <c r="U6" s="1">
+      <c r="V6" s="1">
         <v>15</v>
       </c>
-      <c r="V6" s="1">
+      <c r="W6" s="1">
         <v>78</v>
       </c>
-      <c r="W6" s="1">
+      <c r="X6" s="1">
         <v>0.05</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Y6" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:25">
       <c r="A7" s="1">
         <v>1001</v>
       </c>
@@ -2200,73 +2232,76 @@
         <v>1001</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="6">
+        <v>65</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="6">
         <v>1</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>300</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>500</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>250</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
         <v>3</v>
-      </c>
-      <c r="M7" s="4">
-        <v>2</v>
       </c>
       <c r="N7" s="4">
         <v>2</v>
       </c>
       <c r="O7" s="4">
+        <v>2</v>
+      </c>
+      <c r="P7" s="4">
         <v>15</v>
-      </c>
-      <c r="P7" s="4">
-        <v>5</v>
       </c>
       <c r="Q7" s="4">
         <v>5</v>
       </c>
       <c r="R7" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="S7" s="4">
         <v>40</v>
       </c>
       <c r="T7" s="4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="U7" s="4">
         <v>30</v>
       </c>
       <c r="V7" s="4">
+        <v>30</v>
+      </c>
+      <c r="W7" s="4">
         <v>60</v>
       </c>
-      <c r="W7" s="4">
+      <c r="X7" s="4">
         <v>0.01</v>
       </c>
-      <c r="X7" s="4">
+      <c r="Y7" s="4">
         <v>1.8</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:25">
       <c r="A8" s="1">
         <v>1002</v>
       </c>
@@ -2274,58 +2309,58 @@
         <v>1002</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="I8" s="6">
         <v>1</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>300</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>3000</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>500</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
         <v>3</v>
-      </c>
-      <c r="M8" s="4">
-        <v>2</v>
       </c>
       <c r="N8" s="4">
         <v>2</v>
       </c>
       <c r="O8" s="4">
+        <v>2</v>
+      </c>
+      <c r="P8" s="4">
         <v>20</v>
       </c>
-      <c r="P8" s="4">
+      <c r="Q8" s="4">
         <v>10</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="R8" s="4">
         <v>5</v>
-      </c>
-      <c r="R8" s="4">
-        <v>100</v>
       </c>
       <c r="S8" s="4">
         <v>100</v>
       </c>
       <c r="T8" s="4">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="U8" s="4">
         <v>60</v>
@@ -2334,13 +2369,16 @@
         <v>60</v>
       </c>
       <c r="W8" s="4">
+        <v>60</v>
+      </c>
+      <c r="X8" s="4">
         <v>0.03</v>
       </c>
-      <c r="X8" s="4">
+      <c r="Y8" s="4">
         <v>2.5</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:25">
       <c r="A9" s="1">
         <v>1003</v>
       </c>
@@ -2348,73 +2386,76 @@
         <v>1003</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="6">
+        <v>72</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="6">
         <v>1</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>300</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>2000</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>1000</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>3</v>
-      </c>
-      <c r="M9" s="4">
-        <v>2</v>
       </c>
       <c r="N9" s="4">
         <v>2</v>
       </c>
       <c r="O9" s="4">
+        <v>2</v>
+      </c>
+      <c r="P9" s="4">
         <v>15</v>
-      </c>
-      <c r="P9" s="4">
-        <v>5</v>
       </c>
       <c r="Q9" s="4">
         <v>5</v>
       </c>
       <c r="R9" s="4">
+        <v>5</v>
+      </c>
+      <c r="S9" s="4">
         <v>200</v>
       </c>
-      <c r="S9" s="4">
+      <c r="T9" s="4">
         <v>100</v>
-      </c>
-      <c r="T9" s="4">
-        <v>150</v>
       </c>
       <c r="U9" s="4">
         <v>150</v>
       </c>
       <c r="V9" s="4">
+        <v>150</v>
+      </c>
+      <c r="W9" s="4">
         <v>60</v>
       </c>
-      <c r="W9" s="4">
+      <c r="X9" s="4">
         <v>0.01</v>
       </c>
-      <c r="X9" s="9">
+      <c r="Y9" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:25">
       <c r="A10" s="1">
         <v>1004</v>
       </c>
@@ -2422,73 +2463,76 @@
         <v>1004</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="6">
+        <v>75</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="6">
         <v>1</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>300</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>2000</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>1000</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
         <v>3</v>
-      </c>
-      <c r="M10" s="4">
-        <v>2</v>
       </c>
       <c r="N10" s="4">
         <v>2</v>
       </c>
       <c r="O10" s="4">
+        <v>2</v>
+      </c>
+      <c r="P10" s="4">
         <v>15</v>
-      </c>
-      <c r="P10" s="4">
-        <v>5</v>
       </c>
       <c r="Q10" s="4">
         <v>5</v>
       </c>
       <c r="R10" s="4">
+        <v>5</v>
+      </c>
+      <c r="S10" s="4">
         <v>200</v>
       </c>
-      <c r="S10" s="4">
+      <c r="T10" s="4">
         <v>100</v>
-      </c>
-      <c r="T10" s="4">
-        <v>150</v>
       </c>
       <c r="U10" s="4">
         <v>150</v>
       </c>
       <c r="V10" s="4">
+        <v>150</v>
+      </c>
+      <c r="W10" s="4">
         <v>60</v>
       </c>
-      <c r="W10" s="4">
+      <c r="X10" s="4">
         <v>0.01</v>
       </c>
-      <c r="X10" s="4">
+      <c r="Y10" s="4">
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:25">
       <c r="A11" s="1">
         <v>1005</v>
       </c>
@@ -2496,69 +2540,72 @@
         <v>1005</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="6">
+        <v>78</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="6">
         <v>1</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>300</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>20000</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>10000</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
         <v>3</v>
-      </c>
-      <c r="M11" s="4">
-        <v>2</v>
       </c>
       <c r="N11" s="4">
         <v>2</v>
       </c>
       <c r="O11" s="4">
+        <v>2</v>
+      </c>
+      <c r="P11" s="4">
         <v>50</v>
       </c>
-      <c r="P11" s="4">
+      <c r="Q11" s="4">
         <v>10</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="R11" s="4">
         <v>5</v>
       </c>
-      <c r="R11" s="4">
+      <c r="S11" s="4">
         <v>400</v>
       </c>
-      <c r="S11" s="4">
+      <c r="T11" s="4">
         <v>300</v>
-      </c>
-      <c r="T11" s="4">
-        <v>250</v>
       </c>
       <c r="U11" s="4">
         <v>250</v>
       </c>
       <c r="V11" s="4">
+        <v>250</v>
+      </c>
+      <c r="W11" s="4">
         <v>60</v>
       </c>
-      <c r="W11" s="4">
+      <c r="X11" s="4">
         <v>0.05</v>
       </c>
-      <c r="X11" s="9">
+      <c r="Y11" s="9">
         <v>2</v>
       </c>
     </row>
